--- a/docs/tests/test case/TestCase_PaymentManagement.xlsx
+++ b/docs/tests/test case/TestCase_PaymentManagement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad\OneDrive\Documents\GitHub\fullstack-vitejs-books\docs\tests\test case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KiemThuPhanMem_Web\fullstack-vitejs-books\docs\tests\test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DB8C5A-D3C3-4EA6-B343-78821B4CB781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA44357-449C-4412-BE65-8B8768A34671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1039,14 +1039,32 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1055,32 +1073,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -29394,10 +29394,10 @@
   <dimension ref="A1:Z942"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O42" sqref="O42:O47"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29423,29 +29423,29 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="55" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="55" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="55" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="55" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="48"/>
+      <c r="N1" s="52"/>
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
@@ -29466,25 +29466,25 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -29496,23 +29496,23 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -29524,39 +29524,39 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="59" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="53" t="s">
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="59" t="s">
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="48"/>
-      <c r="O4" s="59" t="s">
+      <c r="N4" s="52"/>
+      <c r="O4" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="61"/>
+      <c r="Q4" s="50"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -29568,23 +29568,23 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="50"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -29596,23 +29596,23 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="61"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="50"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -29624,23 +29624,23 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="61"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -29652,23 +29652,23 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="61"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="50"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -29680,23 +29680,23 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="61"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="50"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -29708,39 +29708,39 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="58" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="47" t="s">
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="47" t="s">
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="49" t="s">
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="48"/>
-      <c r="O10" s="59" t="s">
+      <c r="N10" s="52"/>
+      <c r="O10" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="62" t="s">
+      <c r="P10" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="Q10" s="61"/>
+      <c r="Q10" s="50"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -29752,23 +29752,23 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="61"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="50"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -29780,23 +29780,23 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="61"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="50"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -29808,23 +29808,23 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="61"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="50"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -29836,23 +29836,23 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="61"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="50"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -29864,23 +29864,23 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="61"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="50"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -29892,39 +29892,39 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="51" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="47" t="s">
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="53" t="s">
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49" t="s">
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="48"/>
-      <c r="O16" s="59" t="s">
+      <c r="N16" s="52"/>
+      <c r="O16" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="P16" s="62" t="s">
+      <c r="P16" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="Q16" s="61"/>
+      <c r="Q16" s="50"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -29936,23 +29936,23 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="61"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="50"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -29964,23 +29964,23 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="61"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="50"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -29992,23 +29992,23 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="61"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="50"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -30020,23 +30020,23 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="61"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="50"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -30048,23 +30048,23 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="61"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="50"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -30076,39 +30076,39 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="51" t="s">
+      <c r="C22" s="52"/>
+      <c r="D22" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="47" t="s">
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="47" t="s">
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="49" t="s">
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="48"/>
-      <c r="O22" s="59" t="s">
+      <c r="N22" s="52"/>
+      <c r="O22" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="P22" s="62" t="s">
+      <c r="P22" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="Q22" s="61"/>
+      <c r="Q22" s="50"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -30120,23 +30120,23 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="61"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="50"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -30148,23 +30148,23 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="61"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="50"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -30176,23 +30176,23 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="61"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="50"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
@@ -30204,23 +30204,23 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="61"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="50"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -30232,23 +30232,23 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="61"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="50"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -30260,39 +30260,39 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="51" t="s">
+      <c r="C28" s="52"/>
+      <c r="D28" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="47" t="s">
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="53" t="s">
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="49" t="s">
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="48"/>
-      <c r="O28" s="59" t="s">
+      <c r="N28" s="52"/>
+      <c r="O28" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="P28" s="62" t="s">
+      <c r="P28" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="Q28" s="61"/>
+      <c r="Q28" s="50"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
@@ -30304,23 +30304,23 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="61"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="50"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -30332,23 +30332,23 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="61"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="50"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
@@ -30360,23 +30360,23 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="61"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="50"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
@@ -30388,23 +30388,23 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="61"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="50"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -30416,23 +30416,23 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="61"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="50"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -30444,39 +30444,39 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="51" t="s">
+      <c r="C34" s="52"/>
+      <c r="D34" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="47" t="s">
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="47" t="s">
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="49" t="s">
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="N34" s="48"/>
-      <c r="O34" s="59" t="s">
+      <c r="N34" s="52"/>
+      <c r="O34" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="P34" s="62" t="s">
+      <c r="P34" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="Q34" s="61"/>
+      <c r="Q34" s="50"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -30488,23 +30488,23 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="61"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="50"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
@@ -30516,23 +30516,23 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="48"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="61"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="50"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -30544,23 +30544,23 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="61"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="50"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
@@ -30572,23 +30572,23 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="48"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="61"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="50"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
@@ -30600,23 +30600,23 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="61"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="50"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
@@ -30628,25 +30628,25 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
@@ -30658,23 +30658,23 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
@@ -30686,39 +30686,39 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="58" t="s">
+      <c r="C42" s="52"/>
+      <c r="D42" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="47" t="s">
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="62" t="s">
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="49" t="s">
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="N42" s="48"/>
-      <c r="O42" s="59" t="s">
+      <c r="N42" s="52"/>
+      <c r="O42" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="P42" s="62" t="s">
+      <c r="P42" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="Q42" s="61"/>
+      <c r="Q42" s="50"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
@@ -30730,23 +30730,23 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="61"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="50"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
@@ -30758,23 +30758,23 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="61"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="50"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
@@ -30786,23 +30786,23 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="61"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="50"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
@@ -30814,23 +30814,23 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="61"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="50"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
@@ -30842,23 +30842,23 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="61"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="50"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
@@ -55931,26 +55931,50 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="O34:O39"/>
-    <mergeCell ref="P34:P39"/>
-    <mergeCell ref="Q34:Q39"/>
-    <mergeCell ref="O42:O47"/>
-    <mergeCell ref="P42:P47"/>
-    <mergeCell ref="Q42:Q47"/>
-    <mergeCell ref="O4:O9"/>
-    <mergeCell ref="P4:P9"/>
-    <mergeCell ref="Q4:Q9"/>
-    <mergeCell ref="O10:O15"/>
-    <mergeCell ref="P10:P15"/>
-    <mergeCell ref="Q10:Q15"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B42:C47"/>
-    <mergeCell ref="D42:F47"/>
-    <mergeCell ref="G42:I47"/>
-    <mergeCell ref="B34:C39"/>
-    <mergeCell ref="D34:F39"/>
-    <mergeCell ref="G34:I39"/>
+    <mergeCell ref="J34:L39"/>
+    <mergeCell ref="M34:N39"/>
+    <mergeCell ref="B22:C27"/>
+    <mergeCell ref="D22:F27"/>
+    <mergeCell ref="G22:I27"/>
+    <mergeCell ref="J22:L27"/>
+    <mergeCell ref="G28:I33"/>
+    <mergeCell ref="J28:L33"/>
+    <mergeCell ref="M28:N33"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="M2:Q3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="B4:C9"/>
+    <mergeCell ref="D4:F9"/>
+    <mergeCell ref="G4:I9"/>
+    <mergeCell ref="J4:L9"/>
+    <mergeCell ref="M4:N9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:C15"/>
+    <mergeCell ref="D10:F15"/>
+    <mergeCell ref="G10:I15"/>
+    <mergeCell ref="J10:L15"/>
+    <mergeCell ref="M10:N15"/>
+    <mergeCell ref="Q22:Q27"/>
+    <mergeCell ref="O28:O33"/>
+    <mergeCell ref="P28:P33"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:C21"/>
+    <mergeCell ref="D16:F21"/>
+    <mergeCell ref="G16:I21"/>
+    <mergeCell ref="J16:L21"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:C33"/>
+    <mergeCell ref="D28:F33"/>
+    <mergeCell ref="Q28:Q33"/>
     <mergeCell ref="J42:L47"/>
     <mergeCell ref="M42:N47"/>
     <mergeCell ref="A42:A47"/>
@@ -55967,50 +55991,26 @@
     <mergeCell ref="Q16:Q21"/>
     <mergeCell ref="O22:O27"/>
     <mergeCell ref="P22:P27"/>
-    <mergeCell ref="Q22:Q27"/>
-    <mergeCell ref="O28:O33"/>
-    <mergeCell ref="P28:P33"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:C21"/>
-    <mergeCell ref="D16:F21"/>
-    <mergeCell ref="G16:I21"/>
-    <mergeCell ref="J16:L21"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B28:C33"/>
-    <mergeCell ref="D28:F33"/>
-    <mergeCell ref="Q28:Q33"/>
-    <mergeCell ref="J4:L9"/>
-    <mergeCell ref="M4:N9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:C15"/>
-    <mergeCell ref="D10:F15"/>
-    <mergeCell ref="G10:I15"/>
-    <mergeCell ref="J10:L15"/>
-    <mergeCell ref="M10:N15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="B4:C9"/>
-    <mergeCell ref="D4:F9"/>
-    <mergeCell ref="G4:I9"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="M2:Q3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="J34:L39"/>
-    <mergeCell ref="M34:N39"/>
-    <mergeCell ref="B22:C27"/>
-    <mergeCell ref="D22:F27"/>
-    <mergeCell ref="G22:I27"/>
-    <mergeCell ref="J22:L27"/>
-    <mergeCell ref="G28:I33"/>
-    <mergeCell ref="J28:L33"/>
-    <mergeCell ref="M28:N33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B42:C47"/>
+    <mergeCell ref="D42:F47"/>
+    <mergeCell ref="G42:I47"/>
+    <mergeCell ref="B34:C39"/>
+    <mergeCell ref="D34:F39"/>
+    <mergeCell ref="G34:I39"/>
+    <mergeCell ref="O4:O9"/>
+    <mergeCell ref="P4:P9"/>
+    <mergeCell ref="Q4:Q9"/>
+    <mergeCell ref="O10:O15"/>
+    <mergeCell ref="P10:P15"/>
+    <mergeCell ref="Q10:Q15"/>
+    <mergeCell ref="O34:O39"/>
+    <mergeCell ref="P34:P39"/>
+    <mergeCell ref="Q34:Q39"/>
+    <mergeCell ref="O42:O47"/>
+    <mergeCell ref="P42:P47"/>
+    <mergeCell ref="Q42:Q47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
